--- a/simulations/raw_inclusion_exclusion/van_Dis_2020 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/van_Dis_2020 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D3">
         <v>0.9305555555555556</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6577563540753725</v>
+        <v>0.661262050832603</v>
       </c>
       <c r="I3">
-        <v>0.07224338682764037</v>
+        <v>0.07120356056144483</v>
       </c>
       <c r="J3">
-        <v>0.6805555555555556</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="K3">
-        <v>690.7361111111111</v>
+        <v>681.3194444444445</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -755,34 +755,34 @@
         <v>64</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="R3">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="S3">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="T3">
-        <v>826</v>
+        <v>681</v>
       </c>
       <c r="U3">
-        <v>1655</v>
+        <v>1579</v>
       </c>
       <c r="V3">
-        <v>9038</v>
+        <v>9003</v>
       </c>
       <c r="W3">
-        <v>8979</v>
+        <v>8963</v>
       </c>
       <c r="X3">
-        <v>8842</v>
+        <v>8830</v>
       </c>
       <c r="Y3">
-        <v>8230</v>
+        <v>8375</v>
       </c>
       <c r="Z3">
-        <v>7401</v>
+        <v>7477</v>
       </c>
       <c r="AA3">
         <v>65</v>
@@ -800,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="AF3">
-        <v>0.998012</v>
+        <v>0.994148</v>
       </c>
       <c r="AG3">
-        <v>0.991497</v>
+        <v>0.989731</v>
       </c>
       <c r="AH3">
-        <v>0.976369</v>
+        <v>0.975044</v>
       </c>
       <c r="AI3">
-        <v>0.90879</v>
+        <v>0.924801</v>
       </c>
       <c r="AJ3">
-        <v>0.817248</v>
+        <v>0.82564</v>
       </c>
     </row>
   </sheetData>
